--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F79E02-73B2-4C57-B8FF-D8AB7FCBD31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723B222-86FB-41C9-A1EE-AC87FE642CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="1260" windowWidth="12150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="44940" yWindow="2445" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,94 @@
   </si>
   <si>
     <t>RewardValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기해태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼족오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼목구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천둥오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근두운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상베기 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥베기피해량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,7 +520,7 @@
     <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,13 +536,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -465,13 +559,19 @@
       <c r="E2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -482,13 +582,19 @@
       <c r="E3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -499,13 +605,19 @@
       <c r="E4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -516,13 +628,19 @@
       <c r="E5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -533,13 +651,19 @@
       <c r="E6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -550,13 +674,19 @@
       <c r="E7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -567,13 +697,19 @@
       <c r="E8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -584,13 +720,19 @@
       <c r="E9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -601,13 +743,19 @@
       <c r="E10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -618,13 +766,19 @@
       <c r="E11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -635,13 +789,19 @@
       <c r="E12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -652,13 +812,19 @@
       <c r="E13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -669,13 +835,19 @@
       <c r="E14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -686,13 +858,19 @@
       <c r="E15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -703,13 +881,19 @@
       <c r="E16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -720,141 +904,11 @@
       <c r="E17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="G17" t="s">
         <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723B222-86FB-41C9-A1EE-AC87FE642CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F80D6C-4E84-4537-8E94-E0CDC2AB7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44940" yWindow="2445" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9645" yWindow="1260" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F80D6C-4E84-4537-8E94-E0CDC2AB7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76652007-8973-4024-8C16-F4B513F57D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="1260" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4515" yWindow="1515" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>지옥베기피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRewardValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,9 +526,10 @@
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +551,14 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -565,8 +580,14 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -588,8 +609,14 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -611,8 +638,14 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -634,8 +667,14 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -657,8 +696,14 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -680,8 +725,14 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -703,8 +754,14 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -726,8 +783,14 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -749,8 +812,14 @@
       <c r="G10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -772,8 +841,14 @@
       <c r="G11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -795,8 +870,14 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -818,8 +899,14 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -841,8 +928,14 @@
       <c r="G14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -864,8 +957,14 @@
       <c r="G15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -887,8 +986,14 @@
       <c r="G16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -909,6 +1014,12 @@
       </c>
       <c r="G17" t="s">
         <v>23</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76652007-8973-4024-8C16-F4B513F57D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D3E2B-F339-4B39-A936-BF21C9770A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1515" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3510" yWindow="1200" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,13 +566,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -682,13 +682,13 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -711,13 +711,13 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -740,13 +740,13 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -769,13 +769,13 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -798,13 +798,13 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -827,13 +827,13 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -856,13 +856,13 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -885,13 +885,13 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -914,13 +914,13 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -943,13 +943,13 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -972,13 +972,13 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1001,13 +1001,13 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D3E2B-F339-4B39-A936-BF21C9770A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05FB6E-6142-4608-914F-007E2D1E683D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1200" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>20000000</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -581,10 +581,10 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>20000000</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -610,10 +610,10 @@
         <v>24</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>20000000</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -639,10 +639,10 @@
         <v>24</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>20000000</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -682,13 +682,13 @@
         <v>27</v>
       </c>
       <c r="C6">
+        <v>20000</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>50000</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -697,10 +697,10 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -711,13 +711,13 @@
         <v>27</v>
       </c>
       <c r="C7">
+        <v>20000</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
         <v>50000</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -726,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -740,13 +740,13 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -755,10 +755,10 @@
         <v>25</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -769,13 +769,13 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -784,10 +784,10 @@
         <v>25</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -798,13 +798,13 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -813,10 +813,10 @@
         <v>26</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -827,13 +827,13 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -842,10 +842,10 @@
         <v>26</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -856,13 +856,13 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -871,10 +871,10 @@
         <v>26</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -885,13 +885,13 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -900,10 +900,10 @@
         <v>26</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -914,13 +914,13 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -929,10 +929,10 @@
         <v>23</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -958,10 +958,10 @@
         <v>23</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -972,13 +972,13 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -987,10 +987,10 @@
         <v>23</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1016,10 +1016,10 @@
         <v>23</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05FB6E-6142-4608-914F-007E2D1E683D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D3E2B-F339-4B39-A936-BF21C9770A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3510" yWindow="1200" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>20000000</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -581,10 +581,10 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>20000000</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -610,10 +610,10 @@
         <v>24</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>20000000</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -639,10 +639,10 @@
         <v>24</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>20000000</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -682,13 +682,13 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -697,10 +697,10 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>50000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -711,13 +711,13 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -726,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>50000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -740,13 +740,13 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -755,10 +755,10 @@
         <v>25</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>50000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -769,13 +769,13 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -784,10 +784,10 @@
         <v>25</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>50000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -798,13 +798,13 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -813,10 +813,10 @@
         <v>26</v>
       </c>
       <c r="H10">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -827,13 +827,13 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -842,10 +842,10 @@
         <v>26</v>
       </c>
       <c r="H11">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -856,13 +856,13 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -871,10 +871,10 @@
         <v>26</v>
       </c>
       <c r="H12">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -885,13 +885,13 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -900,10 +900,10 @@
         <v>26</v>
       </c>
       <c r="H13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -914,13 +914,13 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -929,10 +929,10 @@
         <v>23</v>
       </c>
       <c r="H14">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -958,10 +958,10 @@
         <v>23</v>
       </c>
       <c r="H15">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -972,13 +972,13 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -987,10 +987,10 @@
         <v>23</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1016,10 +1016,10 @@
         <v>23</v>
       </c>
       <c r="H17">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D3E2B-F339-4B39-A936-BF21C9770A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0FA81-F146-49E1-B4B2-81EF973B24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1200" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -769,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -798,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -827,7 +827,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -856,7 +856,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -885,7 +885,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -914,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -972,7 +972,7 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1001,7 +1001,7 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>5</v>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0FA81-F146-49E1-B4B2-81EF973B24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A470A-34EF-4B23-B1AD-7B7DE909EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -769,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -798,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -827,7 +827,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -856,7 +856,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -885,7 +885,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -914,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -972,7 +972,7 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1001,7 +1001,7 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>5</v>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A470A-34EF-4B23-B1AD-7B7DE909EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597CCE68-CE83-4973-9B49-23B4EFC2E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,26 @@
   </si>
   <si>
     <t>GetRewardValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신수베기 피해량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,6 +1039,122 @@
         <v>0</v>
       </c>
       <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597CCE68-CE83-4973-9B49-23B4EFC2E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DAAFEA-3B53-4662-80EE-0E134EABA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetHome" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1050,7 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1079,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1108,7 +1108,7 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1137,7 +1137,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
         <v>5</v>

--- a/Assets/06.Table/PetHome.xlsx
+++ b/Assets/06.Table/PetHome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DAAFEA-3B53-4662-80EE-0E134EABA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F549C4-618C-4665-A0C0-0282D801F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1050,7 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1079,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1108,7 +1108,7 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1137,7 +1137,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
         <v>5</v>
